--- a/xlsx/硬通货_intext.xlsx
+++ b/xlsx/硬通货_intext.xlsx
@@ -29,7 +29,7 @@
     <t>货币</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_硬通货</t>
+    <t>政策_政策_货币政策_硬通货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E5%9C%93</t>
   </si>
   <si>
-    <t>日圓</t>
+    <t>日圆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E5%85%83</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%80%9A%E8%B2%A8%E5%B9%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>流通貨幣列表</t>
+    <t>流通货币列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>經濟體</t>
+    <t>经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際貨幣基金組織</t>
+    <t>国际货币基金组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
 </sst>
 </file>
